--- a/Docs/Measurements.xlsx
+++ b/Docs/Measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Case</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Using function+2 indexes</t>
+  </si>
+  <si>
+    <t>From Postman</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,46 +434,50 @@
     <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -494,7 +504,7 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1</v>
       </c>
@@ -509,7 +519,7 @@
         <v>6664</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>3</v>
       </c>
@@ -524,7 +534,7 @@
         <v>6037</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6">
         <f>AVERAGE(E3:E5)</f>
         <v>3.3333333333333335</v>
@@ -542,7 +552,7 @@
         <v>6414.333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,7 +573,7 @@
         <v>6377</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>2</v>
       </c>
@@ -578,7 +588,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
@@ -593,7 +603,7 @@
         <v>6373</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>AVERAGE(E8:E10)</f>
         <v>4.333333333333333</v>
@@ -611,7 +621,7 @@
         <v>6514.666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,7 +642,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>3</v>
       </c>
@@ -647,7 +657,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>1</v>
       </c>
@@ -662,7 +672,7 @@
         <v>5984</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16">
         <f>AVERAGE(E13:E15)</f>
         <v>2</v>
@@ -678,6 +688,90 @@
       <c r="H16">
         <f t="shared" si="0"/>
         <v>6195.666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>751</v>
+      </c>
+      <c r="G28">
+        <v>363</v>
+      </c>
+      <c r="I28">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>671</v>
+      </c>
+      <c r="G29">
+        <v>396</v>
+      </c>
+      <c r="I29">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>855</v>
+      </c>
+      <c r="G30">
+        <v>350</v>
+      </c>
+      <c r="I30">
+        <v>5975</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +782,11 @@
     <hyperlink ref="C8" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="C23" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C28" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>